--- a/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `SubstanceDefinition.characterization` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `SubstanceDefinition.characterization` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+Element `SubstanceDefinition.characterization` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:SubstanceSpecification</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.technique` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.technique` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+Element `SubstanceDefinition.characterization.technique` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:technique.id</t>
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.form` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.form` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+Element `SubstanceDefinition.characterization.form` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:form.id</t>
@@ -459,7 +459,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.description` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.description` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+Element `SubstanceDefinition.characterization.description` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -491,7 +491,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.file` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.file` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+Element `SubstanceDefinition.characterization.file` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:file.id</t>
@@ -857,7 +857,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="152.453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="164.78515625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `SubstanceDefinition.characterization` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `SubstanceDefinition.characterization` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+Element `SubstanceDefinition.characterization` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.technique` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.technique` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+Element `SubstanceDefinition.characterization.technique` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:technique.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.technique</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -431,7 +434,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.form` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.form` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+Element `SubstanceDefinition.characterization.form` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:form.id</t>
@@ -443,6 +446,9 @@
     <t>Extension.extension:form.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.form</t>
+  </si>
+  <si>
     <t>Extension.extension:form.value[x]</t>
   </si>
   <si>
@@ -459,7 +465,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.description` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.description` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+Element `SubstanceDefinition.characterization.description` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -469,6 +475,9 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -491,7 +500,7 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization.file` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.file` is will have a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+Element `SubstanceDefinition.characterization.file` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:file.id</t>
@@ -501,6 +510,9 @@
   </si>
   <si>
     <t>Extension.extension:file.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.file</t>
   </si>
   <si>
     <t>Extension.extension:file.value[x]</t>
@@ -857,7 +869,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="164.78515625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="158.796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1663,7 +1675,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1705,7 +1717,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1720,15 +1732,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1751,7 +1763,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1784,13 +1796,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1808,7 +1820,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1820,21 +1832,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1859,14 +1871,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1935,7 +1947,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2038,7 +2050,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2143,7 +2155,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2186,7 +2198,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2228,7 +2240,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2243,15 +2255,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2274,13 +2286,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2331,7 +2343,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2343,21 +2355,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2382,14 +2394,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2458,7 +2470,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2561,7 +2573,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2666,7 +2678,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2709,7 +2721,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2751,7 +2763,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2766,15 +2778,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2797,13 +2809,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2854,7 +2866,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2866,21 +2878,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2905,14 +2917,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2981,7 +2993,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3084,7 +3096,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3189,7 +3201,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3232,7 +3244,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3274,7 +3286,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3289,15 +3301,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3320,13 +3332,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3377,7 +3389,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3389,18 +3401,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3482,7 +3494,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -3497,15 +3509,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3528,13 +3540,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3585,7 +3597,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3597,10 +3609,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -411,7 +411,7 @@
     <t>The method used to elucidate the characterization of the drug substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-substance-structure-technique-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-structure-technique-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -880,7 +880,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="82.51953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.0234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.characterization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>The method used to elucidate the characterization of the drug substance. Example: HPLC.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.characterization.technique` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.technique` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.characterization.technique` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:technique.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.technique</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -411,7 +407,7 @@
     <t>The method used to elucidate the characterization of the drug substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-structure-technique-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-structure-technique-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -433,8 +429,7 @@
     <t>Describes the nature of the chemical entity and explains, for instance, whether this is a base or a salt form.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.characterization.form` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.form` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.characterization.form` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:form.id</t>
@@ -446,12 +441,12 @@
     <t>Extension.extension:form.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.form</t>
-  </si>
-  <si>
     <t>Extension.extension:form.value[x]</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-substance-form-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:description</t>
   </si>
   <si>
@@ -464,8 +459,7 @@
     <t>The description or justification in support of the interpretation of the data file.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.characterization.description` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.description` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.characterization.description` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -475,9 +469,6 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -499,8 +490,7 @@
     <t>The data produced by the analytical instrument or a pictorial representation of that data. Examples: a JCAMP, JDX, or ADX file, or a chromatogram or spectrum analysis.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.characterization.file` is part of an existing definition because parent element `SubstanceDefinition.characterization` requires a cross-version extension.
-Element `SubstanceDefinition.characterization.file` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.characterization.file` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:file.id</t>
@@ -510,9 +500,6 @@
   </si>
   <si>
     <t>Extension.extension:file.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization.file</t>
   </si>
   <si>
     <t>Extension.extension:file.value[x]</t>
@@ -880,7 +867,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.0234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="78.4375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1675,72 +1662,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1763,7 +1750,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1796,57 +1783,57 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1871,14 +1858,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1947,7 +1934,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2050,7 +2037,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2155,7 +2142,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2198,7 +2185,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2240,30 +2227,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2286,13 +2273,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2319,13 +2306,11 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2343,33 +2328,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2394,14 +2379,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2470,7 +2455,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2573,7 +2558,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2678,7 +2663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2721,7 +2706,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2763,30 +2748,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2809,13 +2794,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2866,33 +2851,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2917,14 +2902,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2993,7 +2978,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3096,7 +3081,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3201,7 +3186,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3244,7 +3229,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3286,30 +3271,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3332,13 +3317,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3389,30 +3374,30 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3494,30 +3479,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3540,13 +3525,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3597,22 +3582,22 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
